--- a/위저드 오브 다이스 데이터 테이블 ver 1.4.xlsx
+++ b/위저드 오브 다이스 데이터 테이블 ver 1.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="조합식 마법서 테이블" sheetId="3" r:id="rId1"/>
@@ -8810,7 +8810,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9008,10 +9008,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스파이더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9021,14 +9017,6 @@
   </si>
   <si>
     <t>그림 리퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스콜피온</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9064,18 +9052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주사위 3개의 눈금이 같은 경우 30의 보호막을 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 3개가 연속될 경우 적 3마리를 공격한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 3개가 연속될 경우 적 3마리를 공격한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주사위 2개의 눈금이 같은 경우가 2쌍 존재할 경우 적 1마리에게 100%의 증폭 데미지를 입힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9092,15 +9068,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주사위 2개의 눈금이 같은 경우 적 1마리에게 7의 추가 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주사위 2개의 눈금이 같은 경우 적 1마리에게 9의 추가 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 2개의 눈금이 같은 경우 적 1마리에게 11의 추가 데미지를 입힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9108,15 +9076,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주사위 2개의 눈금이 같은 경우가 2쌍 존재할 경우 적 1마리에게 150%의 증폭 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주사위 4개의 눈금이 같은 경우 적 1마리에게 30의 추가 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 4개가 연속될 경우 적 1마리에게 21의 추가 데미지를 입히고, 20의 체력을 회복한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9125,14 +9085,6 @@
   </si>
   <si>
     <t>주사위 4개의 눈금이 같은 경우 적 1마리에게 50의 추가 데미지를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 4개가 연속될 경우 적 1마리에게 27의 추가 데미지를 입히고, 25의 체력을 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 4개가 연속될 경우 적 1마리에게 33의 추가 데미지를 입히고, 30의 체력을 회복한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9161,26 +9113,6 @@
   </si>
   <si>
     <t>기본 공격력이 15 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 3개의 눈금이 같은 경우 15의 보호막을 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위 3개의 눈금이 같은 경우 45의 보호막을 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 5개가 연속될 경우 적 1마리에게 400%의 증폭 데미지를 입히고, 30의 보호막을 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 5개가 연속될 경우 적 1마리에게 500%의 증폭 데미지를 입히고, 40의 보호막을 획득한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금이 1씩 차이나는 주사위 5개가 연속될 경우 적 1마리에게 600%의 증폭 데미지를 입히고, 50의 보호막을 획득한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9281,6 +9213,78 @@
   </si>
   <si>
     <t>최대 체력이 50 증가하고, 선택 시 최대 체력까지 체력이 회복된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스콜피온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 2개의 눈금이 같은 경우 적 1마리에게 18의 추가 데미지를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 2개의 눈금이 같은 경우 적 1마리에게 27의 추가 데미지를 입히고, 5의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 3개의 눈금이 같은 경우 5의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 3개의 눈금이 같은 경우 10의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 3개가 연속될 경우 적 3마리에게 3의 추가 데미지를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 3개가 연속될 경우 적 3마리에게 6의 추가 데미지를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 3개가 연속될 경우 적 3마리에게 12의 추가 데미지를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 3개의 눈금이 같은 경우 20의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 2개의 눈금이 같은 경우가 2쌍 존재할 경우 적 1마리에게 250%의 증폭 데미지를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 4개가 연속될 경우 적 1마리에게 21의 추가 데미지를 입히고, 10의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 4개가 연속될 경우 적 1마리에게 27의 추가 데미지를 입히고, 15의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 4개가 연속될 경우 적 1마리에게 33의 추가 데미지를 입히고, 20의 체력을 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 5개가 연속될 경우 적 1마리에게 400%의 증폭 데미지를 입히고, 10의 보호막을 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 5개가 연속될 경우 적 1마리에게 500%의 증폭 데미지를 입히고, 20의 보호막을 획득한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금이 1씩 차이나는 주사위 5개가 연속될 경우 적 1마리에게 600%의 증폭 데미지를 입히고, 30의 보호막을 획득한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9662,8 +9666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9752,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9784,7 +9788,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -9816,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9828,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -9857,10 +9861,10 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -9889,10 +9893,10 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -9921,10 +9925,10 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>20</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -9944,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9976,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10008,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10107,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -10340,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -10372,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -10404,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -10624,8 +10628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10896,8 +10900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10943,7 +10947,7 @@
         <v>20111</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -10959,7 +10963,7 @@
         <v>20112</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10975,7 +10979,7 @@
         <v>20121</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10991,7 +10995,7 @@
         <v>21111</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -10999,7 +11003,7 @@
         <v>21112</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -11007,7 +11011,7 @@
         <v>21113</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -11023,7 +11027,7 @@
         <v>21121</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -11031,7 +11035,7 @@
         <v>21122</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -11039,7 +11043,7 @@
         <v>21123</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -11055,7 +11059,7 @@
         <v>21131</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -11063,7 +11067,7 @@
         <v>21132</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -11071,7 +11075,7 @@
         <v>21133</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -11087,7 +11091,7 @@
         <v>21141</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -11095,7 +11099,7 @@
         <v>21142</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -11103,7 +11107,7 @@
         <v>21143</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -11119,7 +11123,7 @@
         <v>21151</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -11127,7 +11131,7 @@
         <v>21152</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -11135,7 +11139,7 @@
         <v>21153</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -11151,7 +11155,7 @@
         <v>21161</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -11159,7 +11163,7 @@
         <v>21162</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -11167,7 +11171,7 @@
         <v>21163</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -11183,7 +11187,7 @@
         <v>21171</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -11191,7 +11195,7 @@
         <v>21172</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -11199,7 +11203,7 @@
         <v>21173</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -11215,7 +11219,7 @@
         <v>21181</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -11223,7 +11227,7 @@
         <v>21182</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -11231,7 +11235,7 @@
         <v>21183</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -11247,7 +11251,7 @@
         <v>21191</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -11255,7 +11259,7 @@
         <v>21192</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -11263,7 +11267,7 @@
         <v>21193</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -11279,7 +11283,7 @@
         <v>21201</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -11295,7 +11299,7 @@
         <v>21202</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -11311,7 +11315,7 @@
         <v>21203</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -11327,7 +11331,7 @@
         <v>21204</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -11335,7 +11339,7 @@
         <v>11205</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -11343,7 +11347,7 @@
         <v>21205</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -11351,7 +11355,7 @@
         <v>11206</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -11359,7 +11363,7 @@
         <v>21206</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -11367,7 +11371,7 @@
         <v>11207</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -11375,7 +11379,7 @@
         <v>21207</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -11383,7 +11387,7 @@
         <v>11208</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -11391,7 +11395,7 @@
         <v>21208</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -11399,7 +11403,7 @@
         <v>11209</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -11407,7 +11411,7 @@
         <v>21209</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -11415,7 +11419,7 @@
         <v>11210</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -11423,7 +11427,7 @@
         <v>21210</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -11431,7 +11435,7 @@
         <v>11211</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -11439,7 +11443,7 @@
         <v>21211</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -11447,7 +11451,7 @@
         <v>11212</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -11455,7 +11459,7 @@
         <v>21212</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -11463,7 +11467,7 @@
         <v>11213</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -11471,7 +11475,7 @@
         <v>21213</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -11479,7 +11483,7 @@
         <v>11214</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -11487,7 +11491,7 @@
         <v>21214</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -11495,7 +11499,7 @@
         <v>11215</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -11503,7 +11507,7 @@
         <v>21215</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -11511,7 +11515,7 @@
         <v>12011</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -11524,7 +11528,7 @@
         <v>12012</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -11537,7 +11541,7 @@
         <v>12013</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -11550,7 +11554,7 @@
         <v>12015</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -11563,7 +11567,7 @@
         <v>12021</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -11576,7 +11580,7 @@
         <v>12022</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -11589,7 +11593,7 @@
         <v>12023</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -11602,7 +11606,7 @@
         <v>12025</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -11615,7 +11619,7 @@
         <v>12031</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -11628,7 +11632,7 @@
         <v>12032</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -11641,7 +11645,7 @@
         <v>12033</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -11654,7 +11658,7 @@
         <v>12035</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -11667,7 +11671,7 @@
         <v>12041</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -11680,7 +11684,7 @@
         <v>12042</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -11693,7 +11697,7 @@
         <v>12043</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -11706,7 +11710,7 @@
         <v>12045</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -11732,7 +11736,7 @@
         <v>13025</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -11745,7 +11749,7 @@
         <v>13035</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -11758,7 +11762,7 @@
         <v>13045</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -11778,8 +11782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11850,7 +11854,7 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -11873,7 +11877,7 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -11896,7 +11900,7 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -11919,13 +11923,13 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -11939,10 +11943,10 @@
         <v>12021</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -11962,10 +11966,10 @@
         <v>12022</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -11985,16 +11989,16 @@
         <v>12023</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -12008,10 +12012,10 @@
         <v>12025</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -12031,10 +12035,10 @@
         <v>12031</v>
       </c>
       <c r="D11">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -12054,10 +12058,10 @@
         <v>12032</v>
       </c>
       <c r="D12">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -12077,16 +12081,16 @@
         <v>12033</v>
       </c>
       <c r="D13">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -12100,10 +12104,10 @@
         <v>12035</v>
       </c>
       <c r="D14">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -12123,16 +12127,16 @@
         <v>12041</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -12146,16 +12150,16 @@
         <v>12042</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -12169,7 +12173,7 @@
         <v>12043</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -12178,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -12201,7 +12205,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -12218,7 +12222,7 @@
         <v>45</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -12238,10 +12242,10 @@
         <v>13025</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -12261,10 +12265,10 @@
         <v>13035</v>
       </c>
       <c r="D21">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -12284,10 +12288,10 @@
         <v>13045</v>
       </c>
       <c r="D22">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>4</v>
